--- a/biology/Zoologie/Characidium/Characidium.xlsx
+++ b/biology/Zoologie/Characidium/Characidium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Characidium est un genre de poissons téléostéens de la famille des Crenuchidae et de l'ordre des Characiformes. Le genre Characidium regroupe plusieurs espèces de poissons américains.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les poissons du genre Characidium sont de petits characins d'eau douce appartenant à la famille des Crenuchidae. Ces poissons se distinguent par leur corps allongé et souvent marqué de bandes ou de motifs sombres qui leur servent de camouflage dans leur habitat naturel. Généralement de petite taille, ils atteignent rarement plus de 10 cm de longueur. Leur coloration varie du gris au brun avec des motifs pouvant inclure des rayures, des points ou des marbrures, ce qui les aide à se fondre dans le fond de cours d'eau rapides et les substrats rocheux ou sablonneux qu'ils préfèrent. Les Characidium sont connus pour leur nage rapide et leur capacité à se maintenir en place même dans des courants forts, grâce à leurs nageoires pectorales bien développées. Leur morphologie svelte et leur comportement vif en font des sujets fascinants pour l'aquarium d'eau douce, particulièrement appréciés des aquariophiles qui cherchent à recréer des biotopes de ruisseaux ou de petites rivières.
 </t>
@@ -542,7 +556,9 @@
           <t>Espèces Proches</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les espèces proches du genre Characidium comprennent d'autres membres de la famille des Crenuchidae, comme les poissons des genres Crenuchus et Darter Characins (genre Eretmobrycon), ainsi que d'autres petits characins de la famille des Characidae qui partagent des habitats similaires. Ces poissons tendent à présenter des adaptations semblables pour la vie dans des eaux courantes, comme des corps allongés et aérodynamiques, et des nageoires pectorales développées pour une meilleure manœuvrabilité dans les courants. Bien que les membres de ces genres puissent différer en termes de coloration et de taille spécifique, ils partagent une préférence pour les habitats d'eau douce avec un courant modéré à rapide, souvent dans des zones où le fond est composé de galets, de rochers ou de sable. Leur régime alimentaire et leur comportement reproducteur présentent également des similitudes, s'adaptant à des conditions environnementales changeantes typiques des ruisseaux et des petites rivières de leur écosystème naturel.</t>
@@ -573,7 +589,9 @@
           <t>Répartition géographique et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Characidium est répandu à travers l'Amérique du Sud, depuis les cours d'eau du bassin de l'Amazone jusqu'aux systèmes fluviaux du Paraguay-Paraná et des régions côtières de l'Atlantique Sud-Est, englobant une variété d'habitats allant des petits ruisseaux de montagne aux grandes rivières de plaine. Ces poissons sont particulièrement adaptés aux eaux claires, courantes et bien oxygénées, souvent trouvés dans des zones où le substrat est constitué de galets, de graviers ou de sable. Leur présence dans des habitats variés montre une grande capacité d'adaptation aux différents environnements aquatiques, bien qu'ils préfèrent généralement les zones avec un courant modéré, où ils peuvent exploiter les cachettes fournies par la végétation riveraine, les rochers, et les bois submergés pour se protéger des prédateurs et chasser de petits invertébrés.
 </t>
@@ -604,7 +622,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les poissons du genre Characidum sont connus pour leur comportement discret et leur mode de vie benthique, passant la majorité de leur temps près du substrat des cours d'eau. Ils sont principalement diurnes, montrant plus d'activité pendant la journée lorsqu'ils cherchent de la nourriture et explorent leur environnement. Ces poissons présentent une tendance territoriale, surtout en période de reproduction, où les mâles peuvent devenir particulièrement agressifs envers leurs congénères pour défendre leur territoire. Malgré leur petite taille, ils font preuve d'une grande agilité, capable de naviguer avec précision dans les courants d'eau pour éviter les prédateurs et capturer des proies. Leur comportement social varie d'une espèce à l'autre au sein du genre, avec certaines espèces montrant des tendances plus solitaires, tandis que d'autres peuvent former des groupes lâches, surtout en captivité, pour augmenter leur sentiment de sécurité.
 </t>
@@ -635,7 +655,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les poissons du genre Characidum adoptent une alimentation omnivore avec une préférence marquée pour les petites proies aquatiques. Dans leur habitat naturel, ils se nourrissent principalement d'invertébrés, comme des larves d'insectes, des petits crustacés et des vers, ainsi que de matières végétales et de détritus organiques. Cette diversité alimentaire leur permet de tirer profit des différentes ressources disponibles dans leur environnement, variant selon la saison et l'habitat. En captivité, leur régime peut être complété par une variété d'aliments commerciaux, tels que des flocons, des granulés, et des aliments congelés ou vivants adaptés à leur petite taille, pour assurer une alimentation équilibrée. Il est important de varier leur régime pour maintenir une bonne santé et favoriser des couleurs vives, en imitant autant que possible la diversité trouvée dans leur milieu naturel.
 </t>
@@ -666,7 +688,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La reproduction des poissons du genre Characidum est peu documentée en captivité, reflétant leur nature discrète et leur besoin spécifique d'habitat pour la reproduction. En milieu naturel, ils tendent à frayer pendant la saison des pluies, lorsque l'augmentation du débit et de la hauteur de l'eau crée des conditions idéales pour la ponte et le développement des larves. Les femelles pondent leurs œufs sur le substrat ou parmi la végétation aquatique, où ils restent cachés et protégés des prédateurs. Il n'y a généralement pas de soins parentaux, et les œufs sont laissés à se développer seuls, éclosant après quelques jours en fonction de la température de l'eau. En aquarium, la reproduction de ces poissons peut être un défi, nécessitant souvent un bac spécifiquement aménagé avec des conditions d'eau optimales, une alimentation de haute qualité, et parfois des changements d'eau simulant les conditions de la saison des pluies pour encourager le comportement de frai.
 </t>
@@ -697,10 +721,48 @@
           <t>Maintenance en captivité</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La maintenance en captivité des poissons du genre Characidum exige une attention particulière à la qualité de l'eau et à l'environnement du bac. Ces poissons, souvent de petite taille, préfèrent des aquariums bien plantés avec beaucoup de cachettes et un substrat sombre qui imite leur habitat naturel des cours d'eau clairs et rapides. Une filtration efficace est cruciale pour maintenir une eau propre et bien oxygénée, sans pour autant créer un courant trop fort qui pourrait les stresser. La température de l'eau devrait être maintenue dans une fourchette adaptée à leur espèce spécifique, généralement entre 22 et 28°C. Les changements d'eau réguliers sont indispensables pour réduire les niveaux de nitrates et autres déchets. Une alimentation variée, composée d'aliments secs de haute qualité complétée par des apports en vivants ou en congelés, contribue à leur bien-être général et à leur coloration. Un soin particulier doit être apporté pour éviter la surpopulation et pour s'assurer que les conditions spécifiques d'eau douce, en termes de pH et de dureté, soient respectées pour simuler au mieux leur environnement naturel.
-Elevage
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Characidium</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Characidium</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Maintenance en captivité</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Elevage</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 L'élevage des poissons du genre Characidum peut être un défi intéressant pour l'aquariophile avancé, nécessitant un environnement bien contrôlé pour réussir. Ces poissons, en raison de leur petite taille et de leur comportement spécifique, requièrent des aquariums spécialement aménagés pour la reproduction, avec une eau propre, bien oxygénée, et des paramètres soigneusement ajustés à leurs besoins spécifiques (température, pH, dureté). La reproduction est souvent stimulée par des changements de l'eau simulant la saison des pluies dans leur habitat naturel, accompagnés d'une alimentation riche et variée. Les œufs, généralement pondus sur le substrat ou parmi la végétation, nécessitent une attention particulière pour éviter leur prédation par les adultes. Après l'éclosion, les alevins, très petits, doivent être nourris avec des aliments adaptés à leur taille, comme des infusoires ou du plancton, avant de passer graduellement à des aliments plus gros. Le succès de l'élevage repose sur la capacité de l'éleveur à maintenir des conditions d'eau stables et à fournir une alimentation appropriée pour soutenir la croissance des jeunes poissons.
  Portail de l’aquariophilie   Portail de l’ichtyologie                    </t>
         </is>
